--- a/Downer/29267/res_F2LSIP ITP 5 - Lighting.xlsx
+++ b/Downer/29267/res_F2LSIP ITP 5 - Lighting.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Downer\28974\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Downer\29267\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE566D7B-1CD4-46B9-B290-9E7405688A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65618A7-202B-4DE3-9177-2EF049576C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9000" yWindow="975" windowWidth="29010" windowHeight="19740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9135" yWindow="1095" windowWidth="29010" windowHeight="19710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="103">
   <si>
     <t>type</t>
   </si>
@@ -58,9 +58,6 @@
     <t>itp</t>
   </si>
   <si>
-    <t>F2LSIP - ITP 5 - Lighting</t>
-  </si>
-  <si>
     <t>5.0 - Lighting</t>
   </si>
   <si>
@@ -235,9 +232,6 @@
     <t>Frequency - Once prior to subase placement</t>
   </si>
   <si>
-    <t>5.2.4 - Pole &amp; Luminaire Positioning</t>
-  </si>
-  <si>
     <t>Inspection Point: Quality Control Activity - Check setout prior to installation</t>
   </si>
   <si>
@@ -268,19 +262,76 @@
     <t>Inspection Point: Quality Control Activity - Compressive Strength</t>
   </si>
   <si>
-    <t>Acceptance Criteria - As per NZS 3112 - Concrete surrounding base to be minimum 20MPa at 28 days</t>
-  </si>
-  <si>
     <t>Verifying Document - Compressive Strength Report</t>
   </si>
   <si>
     <t>Frequency - Once per days production</t>
   </si>
   <si>
-    <t>5.1.1 - Electrical Installation undertaken by qualified &amp; "approved" technician</t>
-  </si>
-  <si>
     <t>Inspection Point: Quality Control Activity - Completed Post Install</t>
+  </si>
+  <si>
+    <t>5.1.1 - Electrical Installation undertaken by qualified &amp; "approved" technician / Information to be provided by supplier</t>
+  </si>
+  <si>
+    <t>The following information shall be supplied with the quotation, if requested:</t>
+  </si>
+  <si>
+    <t>(a) Fully detailed drawings showing a general arrangement, mounting height, outreach arm length, and base plate details, together with material specifications (including protective coating(s) where relevant), welding, fixing details, and construction tolerances.</t>
+  </si>
+  <si>
+    <t>(b) Method of assembly of the sections and base including lifting and installation procedures.</t>
+  </si>
+  <si>
+    <t>(c) Installation procedure including torque setting for holding down bolts and the maximum and minimum torque tolerance applicable.</t>
+  </si>
+  <si>
+    <t>(d) Maintenance requirements for breakaway devices.</t>
+  </si>
+  <si>
+    <t>(e) Confirmation of specified intended life and details of any recommended maintenance to achieve this.</t>
+  </si>
+  <si>
+    <t>(f) A suitable compliance certificate, e.g. Producer Statement Design (PS1).</t>
+  </si>
+  <si>
+    <t>This information may be lighting column type or wind zone specific and cover the general supply of the lighting columns. This generic information must be submitted initially by the supplier to the NZTA.</t>
+  </si>
+  <si>
+    <t>○ Information to be provided by supplier</t>
+  </si>
+  <si>
+    <t>5.2.4 - Pole &amp; Luminaire Positioning / Add Identification Marking (NZTA M26 2.4)</t>
+  </si>
+  <si>
+    <t>Identification Marking (NZTA M26 2.4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All lighting columns and outreach arms shall be clearly and durably marked with the following information: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">○ Name, identifying mark or symbol of the manufacturer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">○ Year of manufacture (or at least the last two digits of the year in which the marking was affixed) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">○ Manufacturers model number or identification reference </t>
+  </si>
+  <si>
+    <t>○ Impact classification and performance class (F if passively safe/frangible, blank otherwise).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceptance Criteria - As per NZS 3112 - Concrete surrounding base to be minimum 20MPa at 28 days. Columns shall be installed as per the manufacturer’s recommendations. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">○ Columns shall be installed within +/- 100mm of the approved marked location both longitudinally and laterally. Height above finished ground level to ± 50mm of the manufacturer’s level. </t>
+  </si>
+  <si>
+    <t>F2LSIP - ITP 05 - Lighting</t>
+  </si>
+  <si>
+    <t>9a5fbbdd-2c65-4329-9179-9e5adbd10060</t>
   </si>
 </sst>
 </file>
@@ -429,7 +480,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -631,6 +682,17 @@
       <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4CC82"/>
       </patternFill>
     </fill>
   </fills>
@@ -794,13 +856,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1156,10 +1220,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,7 +1237,7 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1199,12 +1263,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>10</v>
@@ -1214,191 +1278,194 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="B13" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>32</v>
+      <c r="A20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>33</v>
+      <c r="A21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>34</v>
+      <c r="A22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>35</v>
+      <c r="A23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>36</v>
+      <c r="A24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>37</v>
+      <c r="A25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1406,7 +1473,7 @@
         <v>9</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1414,7 +1481,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1422,7 +1489,7 @@
         <v>9</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1430,23 +1497,23 @@
         <v>9</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>85</v>
+      <c r="B31" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1454,7 +1521,7 @@
         <v>9</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1462,7 +1529,7 @@
         <v>9</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1470,7 +1537,7 @@
         <v>9</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1478,7 +1545,7 @@
         <v>9</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1486,7 +1553,7 @@
         <v>9</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1494,7 +1561,7 @@
         <v>9</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1502,15 +1569,15 @@
         <v>9</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>49</v>
+      <c r="A39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1518,7 +1585,7 @@
         <v>9</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1526,7 +1593,7 @@
         <v>9</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1534,7 +1601,7 @@
         <v>9</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1542,15 +1609,15 @@
         <v>9</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>50</v>
+      <c r="A44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1558,7 +1625,7 @@
         <v>9</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1566,7 +1633,7 @@
         <v>9</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1574,7 +1641,7 @@
         <v>9</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1582,7 +1649,7 @@
         <v>9</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1590,7 +1657,7 @@
         <v>9</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1598,7 +1665,7 @@
         <v>9</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1606,15 +1673,15 @@
         <v>9</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>17</v>
+      <c r="A52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1622,7 +1689,7 @@
         <v>8</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1630,7 +1697,7 @@
         <v>9</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1638,7 +1705,7 @@
         <v>9</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1646,7 +1713,7 @@
         <v>9</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1654,7 +1721,7 @@
         <v>9</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1662,7 +1729,7 @@
         <v>9</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1670,7 +1737,7 @@
         <v>9</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1678,23 +1745,23 @@
         <v>9</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>61</v>
+      <c r="A61" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>39</v>
+      <c r="A62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1702,7 +1769,7 @@
         <v>9</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1710,15 +1777,15 @@
         <v>9</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>62</v>
+      <c r="A65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1726,7 +1793,7 @@
         <v>9</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1734,7 +1801,7 @@
         <v>9</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1742,7 +1809,7 @@
         <v>9</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1750,7 +1817,7 @@
         <v>9</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1758,7 +1825,7 @@
         <v>9</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1766,7 +1833,7 @@
         <v>9</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1774,23 +1841,23 @@
         <v>9</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>67</v>
+      <c r="B74" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1798,7 +1865,7 @@
         <v>9</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1806,7 +1873,7 @@
         <v>9</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1814,7 +1881,7 @@
         <v>9</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1822,7 +1889,7 @@
         <v>9</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1830,7 +1897,7 @@
         <v>9</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1838,23 +1905,23 @@
         <v>9</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>71</v>
+      <c r="B82" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1862,7 +1929,7 @@
         <v>9</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1870,7 +1937,7 @@
         <v>9</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1878,7 +1945,7 @@
         <v>9</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1886,7 +1953,7 @@
         <v>9</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1894,7 +1961,7 @@
         <v>9</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1902,7 +1969,7 @@
         <v>9</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1910,15 +1977,15 @@
         <v>9</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>77</v>
+      <c r="A90" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1926,71 +1993,199 @@
         <v>9</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B92" s="2" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B93" s="1" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B97" s="1" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>24</v>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
